--- a/Web.xlsx
+++ b/Web.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25415"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25506"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="11_C3F2D2E3B8CDD3796E9F1C92635EDAF835811629" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="12330" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web" sheetId="3" r:id="rId1"/>
@@ -38,23 +38,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" count="8" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,29 +56,19 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -7270,38 +7249,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja12"/>
+  <dimension ref="A1:I290"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0" tabSelected="1" zoomScaleNormal="115">
-      <selection pane="topLeft" activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="0">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0">
-        <v>1</v>
+      <c r="A1">
+        <v>160</v>
+      </c>
+      <c r="B1">
+        <v>48</v>
+      </c>
+      <c r="C1">
+        <v>13</v>
       </c>
       <c r="D1" s="2">
-        <v>1</v>
-      </c>
-      <c r="E1" s="0">
-        <v>1</v>
-      </c>
-      <c r="F1" s="0">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="E1">
+        <v>29</v>
+      </c>
+      <c r="F1">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7426,73 +7406,61 @@
     <row r="6" spans="1:7">
       <c r="A6">
         <f>'[1]Resum ind.'!A8</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
         <f>'[1]Resum ind.'!B8</f>
-        <v>Caçabitlles</v>
-      </c>
-      <c r="C6">
+        <v>Cesc Vea</v>
+      </c>
+      <c r="C6" t="str">
         <f>'[1]Resum ind.'!C8</f>
-        <v>285</v>
+        <v>Vila de Tordera</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Resum ind.'!D8</f>
-        <v>288</v>
-      </c>
-      <c r="E6" t="str">
+        <v>72.5</v>
+      </c>
+      <c r="E6">
         <f>'[1]Resum ind.'!E8</f>
-        <v/>
-      </c>
-      <c r="F6" t="str">
+        <v>13</v>
+      </c>
+      <c r="F6">
         <f>'[1]Resum ind.'!F8</f>
-        <v/>
-      </c>
-      <c r="G6" t="str">
+        <v>145</v>
+      </c>
+      <c r="G6">
         <f>'[1]Resum ind.'!G8</f>
-        <v/>
-      </c>
-      <c r="H6">
-        <v>573</v>
-      </c>
-      <c r="I6">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <f>'[1]Resum ind.'!A9</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="str">
         <f>'[1]Resum ind.'!B9</f>
-        <v>Bitllaires de Fogars "B"</v>
-      </c>
-      <c r="C7">
+        <v>Hervé Manresa</v>
+      </c>
+      <c r="C7" t="str">
         <f>'[1]Resum ind.'!C9</f>
-        <v>240</v>
+        <v>Bitllaires d'Estiu</v>
       </c>
       <c r="D7" s="2">
         <f>'[1]Resum ind.'!D9</f>
-        <v>294</v>
-      </c>
-      <c r="E7" t="str">
+        <v>72.5</v>
+      </c>
+      <c r="E7">
         <f>'[1]Resum ind.'!E9</f>
-        <v/>
-      </c>
-      <c r="F7" t="str">
+        <v>11</v>
+      </c>
+      <c r="F7">
         <f>'[1]Resum ind.'!F9</f>
-        <v/>
-      </c>
-      <c r="G7" t="str">
+        <v>145</v>
+      </c>
+      <c r="G7">
         <f>'[1]Resum ind.'!G9</f>
-        <v/>
-      </c>
-      <c r="H7">
-        <v>534</v>
-      </c>
-      <c r="I7">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
